--- a/dokumenti/Ucesce_clanova_u_implementaciji.xlsx
+++ b/dokumenti/Ucesce_clanova_u_implementaciji.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\808Music\dokumenti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omen\808 Music\dokumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38886664-5F87-441E-B72F-B8AB1204CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AA982-5092-45C4-964E-4D55207EF19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>Učešće članova u implementaciji po funkcionalnostima</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Buy &amp; view products</t>
   </si>
   <si>
-    <t>Orders, OrderDetails</t>
-  </si>
-  <si>
     <t>Manage subscriptions</t>
   </si>
   <si>
@@ -429,6 +426,45 @@
   </si>
   <si>
     <t>Ukupno sa osnovnim funkcionalnostima</t>
+  </si>
+  <si>
+    <t>Customizable monthly stats, html2canvas download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server resizing for images </t>
+  </si>
+  <si>
+    <t>Collab playlist system + invite per link</t>
+  </si>
+  <si>
+    <t>3 + 2</t>
+  </si>
+  <si>
+    <t>Slugs for products</t>
+  </si>
+  <si>
+    <t>Sidenav for listener and artist</t>
+  </si>
+  <si>
+    <t>2 + 3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>UserOrder</t>
+  </si>
+  <si>
+    <t>FollowForUser</t>
+  </si>
+  <si>
+    <t>UserShoppingCart</t>
+  </si>
+  <si>
+    <t>UserProductWishlist</t>
+  </si>
+  <si>
+    <t>Orders, OrderDetails, UserShoppingCart, UserProductWishlist</t>
   </si>
 </sst>
 </file>
@@ -438,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +556,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -704,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,6 +850,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,35 +896,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Postotak" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -991,10 +1059,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,39 +1358,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="7" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="1.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" style="7" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="1.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1337,60 +1401,60 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="35"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-    </row>
-    <row r="9" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="21" t="s">
         <v>7</v>
       </c>
@@ -1428,8 +1492,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1482,8 +1546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1534,8 +1598,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1586,8 +1650,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
       <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1638,8 +1702,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1692,8 +1756,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1808,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1796,8 +1860,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1848,8 +1912,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1900,16 +1964,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1952,16 +2016,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="10">
         <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2004,16 +2068,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="26">
         <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2056,16 +2120,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="26">
         <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -2108,16 +2172,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="10">
         <v>5</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3">
         <v>0.5</v>
@@ -2160,18 +2224,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -2214,16 +2278,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="10">
         <v>5</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -2266,16 +2330,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
       <c r="B26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="33">
         <v>0.25</v>
@@ -2318,8 +2382,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
       <c r="D27" s="6"/>
@@ -2364,9 +2428,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>49</v>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
@@ -2412,8 +2476,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
       <c r="D29" s="6"/>
@@ -2458,8 +2522,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="45"/>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
       <c r="D30" s="6"/>
@@ -2504,8 +2568,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="45"/>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
       <c r="D31" s="6"/>
@@ -2550,8 +2614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="45"/>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
       <c r="D32" s="6"/>
@@ -2596,8 +2660,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
       <c r="D33" s="6"/>
@@ -2642,8 +2706,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
       <c r="D34" s="6"/>
@@ -2688,8 +2752,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
       <c r="D35" s="6"/>
@@ -2734,13 +2798,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J36" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
       <c r="O36" s="16">
         <f>SUM(O10:O35)</f>
         <v>36.75</v>
@@ -2754,22 +2818,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="D39" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>53</v>
-      </c>
       <c r="E39" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -2777,15 +2841,15 @@
         <f t="shared" ref="B40:B50" si="19">COUNTIF(D$10:D$35,"*"&amp;A40&amp;"*")&gt;0</f>
         <v>1</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="D40" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="53">
         <v>15</v>
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -2793,655 +2857,733 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="53">
+        <v>3</v>
+      </c>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E41" s="26">
-        <v>3</v>
-      </c>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B42" s="5" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="53">
+        <v>3</v>
+      </c>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E42" s="26">
-        <v>3</v>
-      </c>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B43" s="5" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="53">
+        <v>3</v>
+      </c>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E43" s="26">
-        <v>3</v>
-      </c>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B44" s="5" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="53">
+        <v>4</v>
+      </c>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E44" s="26">
-        <v>4</v>
-      </c>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B45" s="5" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="53">
+        <v>4</v>
+      </c>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E45" s="26">
-        <v>4</v>
-      </c>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="B46" s="5" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="53">
+        <v>5</v>
+      </c>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E46" s="26">
-        <v>5</v>
-      </c>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B47" s="5" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="53">
+        <v>4</v>
+      </c>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E47" s="26">
-        <v>4</v>
-      </c>
-      <c r="G47"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B48" s="5" t="b">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="53">
+        <v>6</v>
+      </c>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E48" s="26">
-        <v>6</v>
-      </c>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B49" s="5" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="53">
+        <v>3</v>
+      </c>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E49" s="26">
-        <v>3</v>
-      </c>
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B50" s="5" t="b">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="26">
+      <c r="D50" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="53">
         <v>10</v>
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="53">
+        <v>2</v>
+      </c>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="5" t="b">
+        <f t="shared" ref="B52:B71" si="20">COUNTIF(D$10:D$35,"*"&amp;A52&amp;"*")&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E52" s="53">
         <v>2</v>
       </c>
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="5" t="b">
-        <f t="shared" ref="B52:B68" si="20">COUNTIF(D$10:D$35,"*"&amp;A52&amp;"*")&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="26">
-        <v>2</v>
-      </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="53">
+        <v>3</v>
+      </c>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E53" s="26">
-        <v>3</v>
-      </c>
-      <c r="G53"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="B54" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="53">
+        <v>2</v>
+      </c>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E54" s="26">
-        <v>2</v>
-      </c>
-      <c r="G54"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="B55" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="53">
+        <v>4</v>
+      </c>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E55" s="26">
-        <v>4</v>
-      </c>
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B56" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="53">
+        <v>4</v>
+      </c>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E56" s="26">
-        <v>4</v>
-      </c>
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="B57" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="53">
+        <v>3</v>
+      </c>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E57" s="26">
-        <v>3</v>
-      </c>
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="B58" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="53">
+        <v>15</v>
+      </c>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E58" s="26">
-        <v>15</v>
-      </c>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B59" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="53">
+        <v>8</v>
+      </c>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E59" s="26">
-        <v>8</v>
-      </c>
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B60" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="53">
+        <v>3</v>
+      </c>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E60" s="26">
-        <v>3</v>
-      </c>
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="B61" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="53">
+        <v>5</v>
+      </c>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E61" s="26">
-        <v>5</v>
-      </c>
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B62" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="53">
+        <v>2</v>
+      </c>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E62" s="26">
-        <v>2</v>
-      </c>
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="B63" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="28">
+      <c r="D63" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="55">
         <f>SUM(E40:E61)</f>
         <v>111</v>
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D64" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="55">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D66" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="5" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D67" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B68" s="5" t="b">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D68" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="47" t="s">
-        <v>109</v>
+      <c r="D68" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="5" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="50"/>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D73" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="E74" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="47" t="s">
-        <v>110</v>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E75" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="47" t="s">
-        <v>112</v>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="E77" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="47" t="s">
-        <v>113</v>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="E78" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="47" t="s">
-        <v>125</v>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="E79" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="47" t="s">
-        <v>115</v>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="E81" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="47" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="E82" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="47" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="E83" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" s="47" t="s">
-        <v>118</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="E84" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="47" t="s">
-        <v>120</v>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E86" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="47" t="s">
-        <v>121</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="E87" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="47" t="s">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E94" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E88" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="47" t="s">
+      <c r="E97" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="26">
+      <c r="E98" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="E90" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="28">
-        <f>SUM(E66:E90)</f>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="28">
+        <f>SUM(E74:E98)</f>
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="28">
-        <f>E91+13</f>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="28">
+        <f>E99+13</f>
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="49" t="s">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D102" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E93" s="50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" s="26">
+      <c r="E102" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="O8:Q8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A23"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="O8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="B40:B68">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
